--- a/board/pickplace.xlsx
+++ b/board/pickplace.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Designator</t>
   </si>
@@ -112,6 +112,15 @@
     <t>C25</t>
   </si>
   <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -166,16 +175,31 @@
     <t>U1</t>
   </si>
   <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6</t>
+    <t>Bottom</t>
   </si>
 </sst>
 </file>
@@ -248,7 +272,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -558,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>13.016</v>
+        <v>17.62</v>
       </c>
       <c r="C2" s="2">
-        <v>33.097999999999999</v>
+        <v>40.003999999999998</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -575,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>17.62</v>
+        <v>13.016</v>
       </c>
       <c r="C3" s="2">
-        <v>33.097999999999999</v>
+        <v>40.003999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -592,16 +616,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>55.561</v>
+        <v>24.129000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>27.462</v>
+        <v>28.007999999999999</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -609,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>89.691999999999993</v>
+        <v>24.129000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>24.288</v>
+        <v>35.488999999999997</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -626,10 +650,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>88.74</v>
+        <v>40.639000000000003</v>
       </c>
       <c r="C6" s="2">
-        <v>56.433999999999997</v>
+        <v>28.027999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -643,16 +667,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>58.180999999999997</v>
+        <v>40.639000000000003</v>
       </c>
       <c r="C7" s="2">
-        <v>59.768000000000001</v>
+        <v>35.558999999999997</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -660,16 +684,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>62.308</v>
+        <v>73.659000000000006</v>
       </c>
       <c r="C8" s="2">
-        <v>59.768000000000001</v>
+        <v>28.030999999999999</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -677,16 +701,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>66.515000000000001</v>
+        <v>73.659000000000006</v>
       </c>
       <c r="C9" s="2">
-        <v>59.768000000000001</v>
+        <v>35.524000000000001</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,16 +718,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>99.614000000000004</v>
+        <v>90.01</v>
       </c>
       <c r="C10" s="2">
-        <v>55.323</v>
+        <v>28.006</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -711,16 +735,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>76.596000000000004</v>
+        <v>90.01</v>
       </c>
       <c r="C11" s="2">
-        <v>51.91</v>
+        <v>35.558999999999997</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -728,16 +752,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>47.783000000000001</v>
+        <v>28.495999999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>51.750999999999998</v>
+        <v>63.508000000000003</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -745,16 +769,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>45.003999999999998</v>
+        <v>52.069000000000003</v>
       </c>
       <c r="C13" s="2">
-        <v>50.481000000000002</v>
+        <v>27.591000000000001</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -762,16 +786,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>77.548000000000002</v>
+        <v>89.691999999999993</v>
       </c>
       <c r="C14" s="2">
-        <v>48.655999999999999</v>
+        <v>24.288</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -779,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>74.531999999999996</v>
+        <v>88.78</v>
       </c>
       <c r="C15" s="2">
-        <v>47.624000000000002</v>
+        <v>55.917999999999999</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -796,16 +820,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>48.972999999999999</v>
+        <v>77.628</v>
       </c>
       <c r="C16" s="2">
-        <v>46.83</v>
+        <v>49.052999999999997</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -813,16 +837,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>45.003999999999998</v>
+        <v>45.719000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>43.893000000000001</v>
+        <v>56.195999999999998</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -830,10 +854,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>48.497</v>
+        <v>48.1</v>
       </c>
       <c r="C18" s="2">
-        <v>42.305999999999997</v>
+        <v>59.609000000000002</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -847,16 +871,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>77.230999999999995</v>
+        <v>53.585000000000001</v>
       </c>
       <c r="C19" s="2">
-        <v>41.194000000000003</v>
+        <v>62.29</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>270</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -864,16 +888,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>24.129000000000001</v>
+        <v>47.305999999999997</v>
       </c>
       <c r="C20" s="2">
-        <v>35.648000000000003</v>
+        <v>43.179000000000002</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>90</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -881,16 +905,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>73.659000000000006</v>
+        <v>51.116</v>
       </c>
       <c r="C21" s="2">
-        <v>35.524000000000001</v>
+        <v>39.051000000000002</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -898,16 +922,16 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>58.735999999999997</v>
+        <v>53.576999999999998</v>
       </c>
       <c r="C22" s="2">
-        <v>34.368000000000002</v>
+        <v>36.908000000000001</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -915,16 +939,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>61.435000000000002</v>
+        <v>68.340999999999994</v>
       </c>
       <c r="C23" s="2">
-        <v>32.542999999999999</v>
+        <v>60.640999999999998</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -932,16 +956,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>66.515000000000001</v>
+        <v>70.403999999999996</v>
       </c>
       <c r="C24" s="2">
-        <v>31.908000000000001</v>
+        <v>58.973999999999997</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -949,16 +973,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>24.129000000000001</v>
+        <v>74.055999999999997</v>
       </c>
       <c r="C25" s="2">
-        <v>28.960999999999999</v>
+        <v>55.72</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -966,16 +990,16 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>73.659000000000006</v>
+        <v>66.123999999999995</v>
       </c>
       <c r="C26" s="2">
-        <v>28.745000000000001</v>
+        <v>36.555</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -983,16 +1007,16 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>54.529000000000003</v>
+        <v>69.69</v>
       </c>
       <c r="C27" s="2">
-        <v>25.318999999999999</v>
+        <v>40.162999999999997</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1000,84 +1024,84 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>85.564999999999998</v>
+        <v>73.102999999999994</v>
       </c>
       <c r="C28" s="2">
-        <v>56.433999999999997</v>
+        <v>43.417000000000002</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>90</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>87.152000000000001</v>
+        <v>99.631</v>
       </c>
       <c r="C29" s="2">
-        <v>56.433999999999997</v>
+        <v>55.267000000000003</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>55.561</v>
+        <v>53.18</v>
       </c>
       <c r="C30" s="2">
-        <v>28.890999999999998</v>
+        <v>25.24</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>27.545999999999999</v>
+        <v>85.296000000000006</v>
       </c>
       <c r="C31" s="2">
-        <v>24.303000000000001</v>
+        <v>55.917999999999999</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>30.402999999999999</v>
+        <v>87.046000000000006</v>
       </c>
       <c r="C32" s="2">
-        <v>24.303000000000001</v>
+        <v>55.917999999999999</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1085,16 +1109,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>33.261000000000003</v>
+        <v>52.069000000000003</v>
       </c>
       <c r="C33" s="2">
-        <v>24.303000000000001</v>
+        <v>29.495999999999999</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1102,10 +1126,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>36.118000000000002</v>
+        <v>27.545999999999999</v>
       </c>
       <c r="C34" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1119,10 +1143,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>44.765999999999998</v>
+        <v>30.402999999999999</v>
       </c>
       <c r="C35" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1136,10 +1160,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>47.941000000000003</v>
+        <v>33.261000000000003</v>
       </c>
       <c r="C36" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1153,10 +1177,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>59.054000000000002</v>
+        <v>36.118000000000002</v>
       </c>
       <c r="C37" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1170,10 +1194,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>63.499000000000002</v>
+        <v>44.765999999999998</v>
       </c>
       <c r="C38" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1187,10 +1211,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>76.834000000000003</v>
+        <v>47.941000000000003</v>
       </c>
       <c r="C39" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1204,10 +1228,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>79.691000000000003</v>
+        <v>76.834000000000003</v>
       </c>
       <c r="C40" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1221,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>82.549000000000007</v>
+        <v>79.691000000000003</v>
       </c>
       <c r="C41" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -1238,10 +1262,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>85.406000000000006</v>
+        <v>82.549000000000007</v>
       </c>
       <c r="C42" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1255,10 +1279,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>94.138000000000005</v>
+        <v>85.406000000000006</v>
       </c>
       <c r="C43" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -1272,10 +1296,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>96.995000000000005</v>
+        <v>94.138000000000005</v>
       </c>
       <c r="C44" s="2">
-        <v>24.303000000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1289,16 +1313,16 @@
         <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>61.991</v>
+        <v>96.995000000000005</v>
       </c>
       <c r="C45" s="2">
-        <v>47.386000000000003</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1306,16 +1330,16 @@
         <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>91.756</v>
+        <v>59.054000000000002</v>
       </c>
       <c r="C46" s="2">
-        <v>48.734999999999999</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1323,16 +1347,16 @@
         <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>15.239000000000001</v>
+        <v>63.499000000000002</v>
       </c>
       <c r="C47" s="2">
-        <v>40.186999999999998</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1340,16 +1364,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>31.798999999999999</v>
+        <v>60.006</v>
       </c>
       <c r="C48" s="2">
-        <v>31.861999999999998</v>
+        <v>50.084000000000003</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>90</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1357,10 +1381,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>81.12</v>
+        <v>15.239000000000001</v>
       </c>
       <c r="C49" s="2">
-        <v>31.861999999999998</v>
+        <v>47.465000000000003</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1369,8 +1393,126 @@
         <v>90</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2">
+        <v>28.097000000000001</v>
+      </c>
+      <c r="C50" s="2">
+        <v>50.64</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <v>90.724000000000004</v>
+      </c>
+      <c r="C51" s="2">
+        <v>46.83</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2">
+        <v>91.756</v>
+      </c>
+      <c r="C52" s="2">
+        <v>48.734999999999999</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2">
+        <v>31.798999999999999</v>
+      </c>
+      <c r="C53" s="2">
+        <v>31.861999999999998</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2">
+        <v>81.12</v>
+      </c>
+      <c r="C54" s="2">
+        <v>31.748999999999999</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2">
+        <v>46.146999999999998</v>
+      </c>
+      <c r="C55" s="2">
+        <v>32.045000000000002</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2">
+        <v>95.408000000000001</v>
+      </c>
+      <c r="C56" s="2">
+        <v>31.908000000000001</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>